--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_68.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_68.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rei Matsuda</t>
+          <t>Yui Yamaguchi</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
